--- a/PDFParser/ExcelReport/PDFParserData.xlsx
+++ b/PDFParser/ExcelReport/PDFParserData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pon Vignesh K\Documents\UiPath\GCIT_Demo\PDFParser\ExcelReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438B3F8F-EC5B-4650-B7A7-E7C5B9A55E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3299C03-310E-457A-B73C-DE6A1A108744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="R16" sqref="R16"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A2:XFD20"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
